--- a/Code/Game_Study/进展表.xlsx
+++ b/Code/Game_Study/进展表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>时间</t>
   </si>
@@ -39,6 +39,9 @@
     <t>1.被分支坑了，git的分支玩不转，原来在乌龟上是不可以切分支的，只能用命令行来切。
 2.明日贴出具体计划。</t>
   </si>
+  <si>
+    <t>1.被特性打断了，明天写计划</t>
+  </si>
 </sst>
 </file>
 
@@ -47,10 +50,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,66 +63,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,8 +128,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -142,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,39 +167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +189,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,55 +215,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,127 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +406,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,6 +444,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,212 +506,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,15 +1013,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.875"/>
+    <col min="1" max="1" width="16"/>
     <col min="3" max="3" width="31.875" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
@@ -1058,6 +1054,20 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>42584.9718634259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.001</v>
       </c>
     </row>

--- a/Code/Game_Study/进展表.xlsx
+++ b/Code/Game_Study/进展表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PlanGit\Code\Game_Study\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8955"/>
+    <workbookView windowWidth="20385" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>时间</t>
   </si>
@@ -49,18 +44,28 @@
   </si>
   <si>
     <t>谢敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提个意见：一周两次太多了，强烈要求改成1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周两次不算多吧，总共一个月才四次</t>
+  </si>
+  <si>
+    <t>１.计划已写</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,21 +74,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -91,13 +420,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -110,20 +681,62 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -413,21 +1026,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="31.875" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,9 +1059,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="78" customHeight="1" spans="1:4">
       <c r="A2" s="1">
-        <v>42584.021331018499</v>
+        <v>42584.0213310185</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -455,12 +1070,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>42584.971863425897</v>
+        <v>42584.9718634259</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -469,12 +1084,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" ht="27" spans="1:5">
       <c r="A4" s="1">
-        <v>42586.984479166669</v>
+        <v>42586.9844791667</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -483,40 +1098,63 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>8.9999999999999996E-7</v>
+        <v>9e-7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>42587.043587963</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Code/Game_Study/进展表.xlsx
+++ b/Code/Game_Study/进展表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PlanGit\Code\Game_Study\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8955"/>
+    <workbookView windowWidth="20385" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>时间</t>
   </si>
@@ -54,23 +49,33 @@
     <t>提个意见：一周两次太多了，强烈要求改成1次</t>
   </si>
   <si>
+    <t>一周两次不算多吧，总共一个月才四次</t>
+  </si>
+  <si>
     <t>１.计划已写</t>
-  </si>
-  <si>
-    <t>一周两次不算多吧，总共一个月才四次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XM：多！慢慢来，不要一口吃成大胖子嘛
 ，先一周一次，觉得不够再加。（你看看算法有时候几周都没有一次，笑）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次为了完成这个东西，所以我认为必须是这样紧凑。
+你有时间看小说到1点就应该有时间搞这个到2点。
+这次内容不算很多，一周两次是为了保障我们能保持着做这个事儿。
+另外，了解一下，喻波怎么看？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,21 +84,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,13 +430,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -123,20 +694,62 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -426,22 +1039,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="31.875" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,9 +1073,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="78" customHeight="1" spans="1:4">
       <c r="A2" s="1">
-        <v>42584.021331018499</v>
+        <v>42584.0213310185</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -469,12 +1084,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>42584.971863425897</v>
+        <v>42584.9718634259</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -483,12 +1098,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" ht="27" spans="1:5">
       <c r="A4" s="1">
-        <v>42586.984479166698</v>
+        <v>42586.9844791667</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -497,21 +1112,21 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>8.9999999999999996E-7</v>
+        <v>9e-7</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" ht="94" customHeight="1" spans="1:6">
       <c r="A5" s="1">
-        <v>42587.043587963002</v>
+        <v>42587.043587963</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4">
         <v>0.01</v>
@@ -519,38 +1134,47 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>